--- a/Buyer hub/Reports/Manual testcases/Inventory - Costs of Goods.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Inventory - Costs of Goods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D88925-46D4-4B8C-89C3-B960224B5F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F5D22-F522-4C49-A18B-613ED02BB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>SL. No</t>
   </si>
@@ -82,22 +82,6 @@
     <t>Click the Cost of Goods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It should have show the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Location dropdown, All lists dropdown, Period calendar picker, Received inventory and show report ' </t>
-    </r>
-  </si>
-  <si>
     <t>In the dropdown By default, the first outlet linked to user account is selected and  User can only select one outlet</t>
   </si>
   <si>
@@ -158,65 +142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>All lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cost of Goods-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Peroid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cost of Goods-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Received inventory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This determines whether we use GRN data(Received)  or invoice data(Invoiced) Below text is Select which data to display in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Received"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column of the report. Default is GRN.</t>
     </r>
   </si>
   <si>
@@ -250,6 +176,47 @@
       </rPr>
       <t>"Total cost on hand, columns in the report are SKU name and supplier, Average unit price, Opening qty, Purchases, Sales, Wastage, Transfer in, Transfer out, Missing, Found, Promotiion, Variance, Closing qty, Cost on hand"</t>
     </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have to show the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Location dropdown, Inventory list dropdown, Period calendar picker, Received inventory and show report ' </t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t>Cost of Goods-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ineventory lists</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the result </t>
   </si>
 </sst>
 </file>
@@ -656,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,8 +685,11 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -733,7 +703,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,10 +723,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,10 +746,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,13 +769,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -798,31 +792,20 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Reports/Manual testcases/Inventory - Costs of Goods.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Inventory - Costs of Goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F5D22-F522-4C49-A18B-613ED02BB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D38816-86FF-4711-8E1D-EBA76C5F76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
